--- a/data/trans_orig/P16A12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Edad-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2517,7 +2517,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (tasa de respuesta: 99,75%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2012 (tasa de respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4496,7 +4496,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6459,7 +6459,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5652</v>
+        <v>5484</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001980550808284796</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01143985945190231</v>
+        <v>0.01109877246881752</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4914</v>
+        <v>4690</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001017643991632662</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005110976246280255</v>
+        <v>0.004877784930998917</v>
       </c>
     </row>
     <row r="5">
@@ -807,7 +807,7 @@
         <v>493085</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>488412</v>
+        <v>488580</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>494064</v>
@@ -816,7 +816,7 @@
         <v>0.9980194491917153</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9885601405480975</v>
+        <v>0.988901227531182</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>960574</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>956639</v>
+        <v>956863</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>961553</v>
@@ -850,7 +850,7 @@
         <v>0.9989823560083674</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9948890237537198</v>
+        <v>0.9951222150690019</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10157</v>
+        <v>9440</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002421093735100877</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01381026271124363</v>
+        <v>0.01283489218512771</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6459</v>
+        <v>6962</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003254895514951551</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01032695204745612</v>
+        <v>0.01113027844073661</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -987,19 +987,19 @@
         <v>3817</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11275</v>
+        <v>9949</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002804300636566379</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0006523312014606683</v>
+        <v>0.0006503024795702077</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.008284123741995591</v>
+        <v>0.007310231617892019</v>
       </c>
     </row>
     <row r="8">
@@ -1016,7 +1016,7 @@
         <v>733708</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>725332</v>
+        <v>726049</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>735489</v>
@@ -1025,7 +1025,7 @@
         <v>0.9975789062648991</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9861897372887564</v>
+        <v>0.9871651078148723</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1037,7 +1037,7 @@
         <v>623458</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>619035</v>
+        <v>618532</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>625494</v>
@@ -1046,7 +1046,7 @@
         <v>0.9967451044850485</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9896730479525437</v>
+        <v>0.9888697215592638</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1058,19 +1058,19 @@
         <v>1357165</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1349707</v>
+        <v>1351033</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1360094</v>
+        <v>1360097</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9971956993634337</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9917158762580054</v>
+        <v>0.9926897683821081</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9993476687985394</v>
+        <v>0.9993496975204298</v>
       </c>
     </row>
     <row r="9">
@@ -1162,19 +1162,19 @@
         <v>11327</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6348</v>
+        <v>6334</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18421</v>
+        <v>19244</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01776380536766004</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009954973984930428</v>
+        <v>0.009934085523558648</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02888833174473326</v>
+        <v>0.03017883872367432</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1183,19 +1183,19 @@
         <v>6169</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2160</v>
+        <v>2200</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12537</v>
+        <v>12807</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008943510245120198</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003131913507505925</v>
+        <v>0.003188894979250419</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01817649346031986</v>
+        <v>0.01856792393970226</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1204,19 +1204,19 @@
         <v>17496</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10748</v>
+        <v>11138</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28405</v>
+        <v>26969</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01318057732487948</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008096693313313245</v>
+        <v>0.008391243877968727</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02139890177296812</v>
+        <v>0.02031735387956986</v>
       </c>
     </row>
     <row r="11">
@@ -1233,19 +1233,19 @@
         <v>626322</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>619228</v>
+        <v>618405</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>631301</v>
+        <v>631315</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9822361946323399</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9711116682552667</v>
+        <v>0.9698211612763259</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9900450260150696</v>
+        <v>0.9900659144764413</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>652</v>
@@ -1254,19 +1254,19 @@
         <v>683575</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>677207</v>
+        <v>676937</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>687584</v>
+        <v>687544</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9910564897548798</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9818235065396802</v>
+        <v>0.9814320760602978</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.996868086492494</v>
+        <v>0.9968111050207495</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1252</v>
@@ -1275,19 +1275,19 @@
         <v>1309898</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1298989</v>
+        <v>1300425</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1316646</v>
+        <v>1316256</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9868194226751206</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9786010982270322</v>
+        <v>0.9796826461204302</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9919033066866868</v>
+        <v>0.9916087561220314</v>
       </c>
     </row>
     <row r="12">
@@ -1379,19 +1379,19 @@
         <v>23222</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15132</v>
+        <v>14874</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35212</v>
+        <v>35057</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04473188432497967</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02914700760221144</v>
+        <v>0.02865049711254494</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06782622627234645</v>
+        <v>0.0675289391492567</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -1400,19 +1400,19 @@
         <v>17178</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10143</v>
+        <v>10012</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27209</v>
+        <v>27264</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0333140817741805</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01967032093301926</v>
+        <v>0.01941639307020951</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05276805344848112</v>
+        <v>0.05287416345152777</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -1421,19 +1421,19 @@
         <v>40401</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29600</v>
+        <v>29381</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54334</v>
+        <v>54181</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03904232032472183</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02860454862122718</v>
+        <v>0.02839349905856629</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05250693216213199</v>
+        <v>0.05235949613685336</v>
       </c>
     </row>
     <row r="14">
@@ -1450,19 +1450,19 @@
         <v>495925</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>483935</v>
+        <v>484090</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>504015</v>
+        <v>504273</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9552681156750203</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9321737737276535</v>
+        <v>0.9324710608507433</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9708529923977886</v>
+        <v>0.971349502887455</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>484</v>
@@ -1471,19 +1471,19 @@
         <v>498464</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>488433</v>
+        <v>488378</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>505499</v>
+        <v>505630</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9666859182258195</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9472319465515189</v>
+        <v>0.9471258365484723</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9803296790669808</v>
+        <v>0.9805836069297905</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>946</v>
@@ -1492,19 +1492,19 @@
         <v>994388</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>980455</v>
+        <v>980608</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1005189</v>
+        <v>1005408</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9609576796752781</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.947493067837868</v>
+        <v>0.9476405038631466</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9713954513787728</v>
+        <v>0.9716065009414332</v>
       </c>
     </row>
     <row r="15">
@@ -1596,19 +1596,19 @@
         <v>46749</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35259</v>
+        <v>34900</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59623</v>
+        <v>61256</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1208902925820572</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09117793893901219</v>
+        <v>0.09024871574192601</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1541796287093728</v>
+        <v>0.1584017529929235</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>39</v>
@@ -1617,19 +1617,19 @@
         <v>40632</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29408</v>
+        <v>29781</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>54254</v>
+        <v>54957</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.10057855509182</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07279442487589645</v>
+        <v>0.07371909114501943</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1342968955854115</v>
+        <v>0.1360361278102819</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>88</v>
@@ -1638,19 +1638,19 @@
         <v>87382</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>70328</v>
+        <v>71237</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>104706</v>
+        <v>107932</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1105125279191938</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08894504544815271</v>
+        <v>0.09009355999232874</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1324232045056643</v>
+        <v>0.1365021106724666</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>339961</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>327087</v>
+        <v>325454</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>351451</v>
+        <v>351810</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8791097074179427</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8458203712906273</v>
+        <v>0.8415982470070765</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9088220610609878</v>
+        <v>0.9097512842580741</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>357</v>
@@ -1688,19 +1688,19 @@
         <v>363354</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>349732</v>
+        <v>349029</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>374578</v>
+        <v>374205</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.89942144490818</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8657031044145885</v>
+        <v>0.8639638721897183</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9272055751241036</v>
+        <v>0.9262809088549806</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>700</v>
@@ -1709,19 +1709,19 @@
         <v>703314</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>685990</v>
+        <v>682764</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>720368</v>
+        <v>719459</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8894874720808061</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8675767954943358</v>
+        <v>0.8634978893275334</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9110549545518474</v>
+        <v>0.9099064400076714</v>
       </c>
     </row>
     <row r="18">
@@ -1813,19 +1813,19 @@
         <v>56993</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>44515</v>
+        <v>45734</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>70275</v>
+        <v>70623</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1947916163284679</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1521452920308708</v>
+        <v>0.1563107193634106</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2401875071526328</v>
+        <v>0.2413785394425763</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>76</v>
@@ -1834,19 +1834,19 @@
         <v>71156</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>58232</v>
+        <v>57688</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>86687</v>
+        <v>86776</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2074909656140186</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.169804645595201</v>
+        <v>0.168218420134838</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2527795386023625</v>
+        <v>0.2530402456660542</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>138</v>
@@ -1855,19 +1855,19 @@
         <v>128148</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>108921</v>
+        <v>109464</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>146702</v>
+        <v>148197</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.20164436557143</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1713900372096444</v>
+        <v>0.1722437875234029</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2308391729360707</v>
+        <v>0.2331913397113859</v>
       </c>
     </row>
     <row r="20">
@@ -1884,19 +1884,19 @@
         <v>235590</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>222308</v>
+        <v>221960</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>248068</v>
+        <v>246849</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.805208383671532</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7598124928473673</v>
+        <v>0.7586214605574237</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8478547079691292</v>
+        <v>0.8436892806365894</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>295</v>
@@ -1905,19 +1905,19 @@
         <v>271778</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>256247</v>
+        <v>256158</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>284702</v>
+        <v>285246</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7925090343859814</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7472204613976375</v>
+        <v>0.7469597543339458</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8301953544047992</v>
+        <v>0.8317815798651621</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>536</v>
@@ -1926,19 +1926,19 @@
         <v>507369</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>488815</v>
+        <v>487320</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>526596</v>
+        <v>526053</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7983556344285699</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7691608270639293</v>
+        <v>0.7668086602886142</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8286099627903557</v>
+        <v>0.827756212476597</v>
       </c>
     </row>
     <row r="21">
@@ -2030,19 +2030,19 @@
         <v>41978</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31549</v>
+        <v>31361</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53814</v>
+        <v>53671</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2000043812985877</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1503157680689171</v>
+        <v>0.1494203289996035</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2564008250508774</v>
+        <v>0.2557210377033777</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>59</v>
@@ -2051,19 +2051,19 @@
         <v>68044</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>53015</v>
+        <v>53418</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>84819</v>
+        <v>84769</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2037821665900789</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1587709371667677</v>
+        <v>0.159978764906833</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2540197646061511</v>
+        <v>0.2538685544537645</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>103</v>
@@ -2072,19 +2072,19 @@
         <v>110022</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>91861</v>
+        <v>91992</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>129465</v>
+        <v>130154</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2023240826253261</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1689274748421265</v>
+        <v>0.1691672529503035</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2380779555381305</v>
+        <v>0.2393461476722587</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>167905</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>156069</v>
+        <v>156212</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>178334</v>
+        <v>178522</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7999956187014123</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.743599174949123</v>
+        <v>0.7442789622966219</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.849684231931083</v>
+        <v>0.8505796710003964</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>231</v>
@@ -2122,19 +2122,19 @@
         <v>265864</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>249089</v>
+        <v>249139</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>280893</v>
+        <v>280490</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.796217833409921</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7459802353938491</v>
+        <v>0.7461314455462355</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8412290628332325</v>
+        <v>0.8400212350931671</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>407</v>
@@ -2143,19 +2143,19 @@
         <v>433769</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>414326</v>
+        <v>413637</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>451930</v>
+        <v>451799</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7976759173746739</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7619220444618695</v>
+        <v>0.7606538523277413</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8310725251578734</v>
+        <v>0.8308327470496965</v>
       </c>
     </row>
     <row r="24">
@@ -2247,19 +2247,19 @@
         <v>183028</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>161058</v>
+        <v>157281</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>210790</v>
+        <v>210899</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05587758800138626</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04917020154681201</v>
+        <v>0.0480170571116687</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06435310264065641</v>
+        <v>0.06438621055171387</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>200</v>
@@ -2268,19 +2268,19 @@
         <v>205215</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>179435</v>
+        <v>180263</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>233611</v>
+        <v>233105</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06072901664633672</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05309977319538539</v>
+        <v>0.05334482818254589</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06913202554855588</v>
+        <v>0.06898246061008288</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>391</v>
@@ -2289,19 +2289,19 @@
         <v>388244</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>347818</v>
+        <v>351804</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>424820</v>
+        <v>426398</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05834109188413016</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05226630388757596</v>
+        <v>0.0528653090353768</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06383733091707244</v>
+        <v>0.06407449286721129</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>3092497</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3064735</v>
+        <v>3064626</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3114467</v>
+        <v>3118244</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9441224119986137</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9356468973593435</v>
+        <v>0.935613789448286</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.950829798453188</v>
+        <v>0.9519829428883313</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3097</v>
@@ -2339,19 +2339,19 @@
         <v>3173982</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3145586</v>
+        <v>3146092</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3199762</v>
+        <v>3198934</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9392709833536633</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9308679744514444</v>
+        <v>0.9310175393899172</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9469002268046151</v>
+        <v>0.9466551718174541</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6119</v>
@@ -2360,19 +2360,19 @@
         <v>6266478</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6229902</v>
+        <v>6228324</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6306904</v>
+        <v>6302918</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9416589081158698</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9361626690829274</v>
+        <v>0.9359255071327885</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9477336961124239</v>
+        <v>0.9471346909646229</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5686</v>
+        <v>6097</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00411810379410259</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01254980051876234</v>
+        <v>0.01345656394930874</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -2728,19 +2728,19 @@
         <v>3036</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>985</v>
+        <v>994</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8115</v>
+        <v>8203</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007070238786566408</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002293423004415276</v>
+        <v>0.002315402426358334</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01890144698862314</v>
+        <v>0.01910602276966447</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -2749,19 +2749,19 @@
         <v>4901</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1949</v>
+        <v>1895</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10949</v>
+        <v>11042</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005554417729572988</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002208275210207986</v>
+        <v>0.00214763598505286</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01240778477689668</v>
+        <v>0.01251311306648314</v>
       </c>
     </row>
     <row r="5">
@@ -2778,7 +2778,7 @@
         <v>451239</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>447419</v>
+        <v>447008</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>453105</v>
@@ -2787,7 +2787,7 @@
         <v>0.9958818962058974</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9874501994812377</v>
+        <v>0.9865434360506912</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2799,19 +2799,19 @@
         <v>426303</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>421224</v>
+        <v>421136</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>428354</v>
+        <v>428345</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9929297612134336</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9810985530113769</v>
+        <v>0.9808939772303356</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9977065769955847</v>
+        <v>0.9976845975736417</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>860</v>
@@ -2820,19 +2820,19 @@
         <v>877544</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>871496</v>
+        <v>871403</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>880496</v>
+        <v>880550</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.994445582270427</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9875922152231034</v>
+        <v>0.9874868869335169</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9977917247897921</v>
+        <v>0.9978523640149471</v>
       </c>
     </row>
     <row r="6">
@@ -2924,19 +2924,19 @@
         <v>10557</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5100</v>
+        <v>4895</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21339</v>
+        <v>21115</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01538347057998512</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007432513857933055</v>
+        <v>0.007133599893870399</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0310954067679624</v>
+        <v>0.03076895776508358</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -2945,19 +2945,19 @@
         <v>7761</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2996</v>
+        <v>3004</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15598</v>
+        <v>15220</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01273995065768789</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004917861256651328</v>
+        <v>0.004931605303476031</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02560284824428085</v>
+        <v>0.0249830554818866</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -2966,19 +2966,19 @@
         <v>18318</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10882</v>
+        <v>10766</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30044</v>
+        <v>29671</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01414029881177413</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008399935340880314</v>
+        <v>0.008310266081567029</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02319174961444922</v>
+        <v>0.02290435294280677</v>
       </c>
     </row>
     <row r="8">
@@ -2995,19 +2995,19 @@
         <v>675681</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>664899</v>
+        <v>665123</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>681138</v>
+        <v>681343</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9846165294200149</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9689045932320368</v>
+        <v>0.9692310422349164</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9925674861420668</v>
+        <v>0.9928664001061296</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>563</v>
@@ -3016,19 +3016,19 @@
         <v>601453</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>593616</v>
+        <v>593994</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>606218</v>
+        <v>606210</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9872600493423122</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9743971517557177</v>
+        <v>0.9750169445181135</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9950821387433487</v>
+        <v>0.995068394696524</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1220</v>
@@ -3037,19 +3037,19 @@
         <v>1277133</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1265407</v>
+        <v>1265780</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1284569</v>
+        <v>1284685</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9858597011882259</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9768082503855511</v>
+        <v>0.9770956470571931</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9916000646591198</v>
+        <v>0.9916897339184328</v>
       </c>
     </row>
     <row r="9">
@@ -3141,19 +3141,19 @@
         <v>3904</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1023</v>
+        <v>929</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9785</v>
+        <v>8883</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005740095392706067</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001504317339833635</v>
+        <v>0.001366174564378264</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01438865641375893</v>
+        <v>0.01306250511700083</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -3162,19 +3162,19 @@
         <v>12124</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6239</v>
+        <v>6910</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21049</v>
+        <v>21293</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01717447270542823</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008838298127063807</v>
+        <v>0.009788773555536555</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02981701070884166</v>
+        <v>0.03016224457513446</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -3183,19 +3183,19 @@
         <v>16028</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9531</v>
+        <v>9950</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26276</v>
+        <v>26173</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01156404522688164</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00687680429030043</v>
+        <v>0.007179267758455394</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0189581021582044</v>
+        <v>0.01888382302322151</v>
       </c>
     </row>
     <row r="11">
@@ -3212,19 +3212,19 @@
         <v>676150</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>670269</v>
+        <v>671171</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>679031</v>
+        <v>679125</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.994259904607294</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9856113435862432</v>
+        <v>0.9869374948829992</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9984956826601664</v>
+        <v>0.9986338254356217</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>651</v>
@@ -3233,19 +3233,19 @@
         <v>693811</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>684886</v>
+        <v>684642</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>699696</v>
+        <v>699025</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9828255272945717</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9701829892911582</v>
+        <v>0.9698377554248658</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9911617018729362</v>
+        <v>0.9902112264444635</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1296</v>
@@ -3254,19 +3254,19 @@
         <v>1369961</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1359713</v>
+        <v>1359816</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1376458</v>
+        <v>1376039</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9884359547731184</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9810418978417953</v>
+        <v>0.9811161769767784</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9931231957096983</v>
+        <v>0.9928207322415445</v>
       </c>
     </row>
     <row r="12">
@@ -3358,19 +3358,19 @@
         <v>22462</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13924</v>
+        <v>14933</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33375</v>
+        <v>34553</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03654595243574237</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02265398165971642</v>
+        <v>0.02429569866028619</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05430251658735111</v>
+        <v>0.05621870994148563</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -3379,19 +3379,19 @@
         <v>21507</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12940</v>
+        <v>12799</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32350</v>
+        <v>32773</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03502348959328408</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02107249349580633</v>
+        <v>0.02084216259550387</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05268100602638755</v>
+        <v>0.05336988423427132</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -3400,19 +3400,19 @@
         <v>43969</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31933</v>
+        <v>32142</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>59049</v>
+        <v>61077</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03578505812501125</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02598944306770202</v>
+        <v>0.02615937330008929</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04805844848516145</v>
+        <v>0.04970937094531144</v>
       </c>
     </row>
     <row r="14">
@@ -3429,19 +3429,19 @@
         <v>592155</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>581242</v>
+        <v>580064</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>600693</v>
+        <v>599684</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9634540475642577</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9456974834126488</v>
+        <v>0.9437812900585143</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9773460183402836</v>
+        <v>0.9757043013397138</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>518</v>
@@ -3450,19 +3450,19 @@
         <v>592565</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>581722</v>
+        <v>581299</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>601132</v>
+        <v>601273</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9649765104067159</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9473189939736124</v>
+        <v>0.9466301157657286</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9789275065041938</v>
+        <v>0.9791578374044958</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1045</v>
@@ -3471,19 +3471,19 @@
         <v>1184720</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1169640</v>
+        <v>1167612</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1196756</v>
+        <v>1196547</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9642149418749888</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9519415515148386</v>
+        <v>0.9502906290546885</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9740105569322981</v>
+        <v>0.9738406266999108</v>
       </c>
     </row>
     <row r="15">
@@ -3575,19 +3575,19 @@
         <v>49708</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36698</v>
+        <v>36590</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>64031</v>
+        <v>64858</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1160478399956086</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08567488195844335</v>
+        <v>0.08542104288282532</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1494849074300242</v>
+        <v>0.151416041679013</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>49</v>
@@ -3596,19 +3596,19 @@
         <v>52216</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>38241</v>
+        <v>40171</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>66781</v>
+        <v>66638</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1166045696362056</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08539830680992527</v>
+        <v>0.08970767036888024</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1491307841556366</v>
+        <v>0.1488126851841895</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>96</v>
@@ -3617,19 +3617,19 @@
         <v>101924</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>85061</v>
+        <v>84357</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>120921</v>
+        <v>123518</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1163323864060921</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09708613955304325</v>
+        <v>0.09628210974154069</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1380151188068359</v>
+        <v>0.1409789304054173</v>
       </c>
     </row>
     <row r="17">
@@ -3646,19 +3646,19 @@
         <v>378636</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>364313</v>
+        <v>363486</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>391646</v>
+        <v>391754</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8839521600043914</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8505150925699758</v>
+        <v>0.8485839583209868</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9143251180415567</v>
+        <v>0.9145789571171747</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>357</v>
@@ -3667,19 +3667,19 @@
         <v>395584</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>381019</v>
+        <v>381162</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>409559</v>
+        <v>407629</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8833954303637944</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8508692158443633</v>
+        <v>0.8511873148158112</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9146016931900748</v>
+        <v>0.9102923296311198</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>702</v>
@@ -3688,19 +3688,19 @@
         <v>774220</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>755223</v>
+        <v>752626</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>791083</v>
+        <v>791787</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.883667613593908</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.861984881193164</v>
+        <v>0.8590210695945826</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9029138604469568</v>
+        <v>0.9037178902584592</v>
       </c>
     </row>
     <row r="18">
@@ -3792,19 +3792,19 @@
         <v>89826</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>74924</v>
+        <v>72600</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>108070</v>
+        <v>108965</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2899599761968118</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.24185672430878</v>
+        <v>0.2343555928550605</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3488529977148259</v>
+        <v>0.3517424721928516</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>84</v>
@@ -3813,19 +3813,19 @@
         <v>84941</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>70069</v>
+        <v>69363</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>103040</v>
+        <v>101062</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2399479715837597</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1979367058164886</v>
+        <v>0.1959420473896795</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2910771547498016</v>
+        <v>0.2854901279121241</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>165</v>
@@ -3834,19 +3834,19 @@
         <v>174766</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>152400</v>
+        <v>152386</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>196206</v>
+        <v>199028</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2632885016423736</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.229593767922037</v>
+        <v>0.2295722347285746</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2955874337284026</v>
+        <v>0.2998390305028998</v>
       </c>
     </row>
     <row r="20">
@@ -3863,19 +3863,19 @@
         <v>219960</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>201716</v>
+        <v>200821</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>234862</v>
+        <v>237186</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7100400238031882</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6511470022851741</v>
+        <v>0.6482575278071487</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.75814327569122</v>
+        <v>0.7656444071449398</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>260</v>
@@ -3884,19 +3884,19 @@
         <v>269055</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>250956</v>
+        <v>252934</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>283927</v>
+        <v>284633</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7600520284162403</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7089228452501986</v>
+        <v>0.714509872087876</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8020632941835114</v>
+        <v>0.8040579526103205</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>461</v>
@@ -3905,19 +3905,19 @@
         <v>489016</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>467576</v>
+        <v>464754</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>511382</v>
+        <v>511396</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7367114983576264</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7044125662715973</v>
+        <v>0.7001609694970999</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.770406232077963</v>
+        <v>0.7704277652714253</v>
       </c>
     </row>
     <row r="21">
@@ -4009,19 +4009,19 @@
         <v>71749</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>57095</v>
+        <v>57648</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>87244</v>
+        <v>87209</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2881054026238081</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2292621064457124</v>
+        <v>0.2314844212316873</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3503257537480869</v>
+        <v>0.3501862733807427</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>109</v>
@@ -4030,19 +4030,19 @@
         <v>118402</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>102268</v>
+        <v>99329</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>138832</v>
+        <v>138344</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3061429551552307</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2644265317928459</v>
+        <v>0.2568289543602971</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3589690330146111</v>
+        <v>0.3577061348423311</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>174</v>
@@ -4051,19 +4051,19 @@
         <v>190150</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>168215</v>
+        <v>167190</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>214689</v>
+        <v>216002</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2990777186210235</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2645760232599639</v>
+        <v>0.2629643645570257</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3376727116112112</v>
+        <v>0.3397389246713157</v>
       </c>
     </row>
     <row r="23">
@@ -4080,19 +4080,19 @@
         <v>177287</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>161792</v>
+        <v>161827</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>191941</v>
+        <v>191388</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7118945973761919</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6496742462519129</v>
+        <v>0.6498137266192575</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7707378935542877</v>
+        <v>0.7685155787683131</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>239</v>
@@ -4101,19 +4101,19 @@
         <v>268351</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>247921</v>
+        <v>248409</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>284485</v>
+        <v>287424</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6938570448447693</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6410309669853889</v>
+        <v>0.6422938651576688</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7355734682071541</v>
+        <v>0.7431710456397026</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>395</v>
@@ -4122,19 +4122,19 @@
         <v>445639</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>421100</v>
+        <v>419787</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>467574</v>
+        <v>468599</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7009222813789765</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6623272883887888</v>
+        <v>0.6602610753286842</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7354239767400359</v>
+        <v>0.7370356354429743</v>
       </c>
     </row>
     <row r="24">
@@ -4226,19 +4226,19 @@
         <v>250071</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>216787</v>
+        <v>218513</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>284848</v>
+        <v>282063</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07309483587832821</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06336607398399374</v>
+        <v>0.0638707004419605</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08326024461877378</v>
+        <v>0.08244612200288264</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>283</v>
@@ -4247,19 +4247,19 @@
         <v>299986</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>269260</v>
+        <v>269626</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>332597</v>
+        <v>336528</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08457188379677998</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07590954776220786</v>
+        <v>0.07601294083900072</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09376575404170655</v>
+        <v>0.09487377675308131</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>512</v>
@@ -4268,19 +4268,19 @@
         <v>550056</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>503836</v>
+        <v>504142</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>599017</v>
+        <v>598602</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07893706617696331</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07230410076287572</v>
+        <v>0.0723479820321806</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08596331956708025</v>
+        <v>0.08590365769011724</v>
       </c>
     </row>
     <row r="26">
@@ -4297,19 +4297,19 @@
         <v>3171108</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3136331</v>
+        <v>3139116</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3204392</v>
+        <v>3202666</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9269051641216718</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9167397553812263</v>
+        <v>0.9175538779971174</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9366339260160064</v>
+        <v>0.9361292995580396</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3005</v>
@@ -4318,19 +4318,19 @@
         <v>3247124</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3214513</v>
+        <v>3210582</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3277850</v>
+        <v>3277484</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9154281162032201</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9062342459582935</v>
+        <v>0.9051262232469187</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9240904522377922</v>
+        <v>0.9239870591609993</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5979</v>
@@ -4339,19 +4339,19 @@
         <v>6418233</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6369272</v>
+        <v>6369687</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6464453</v>
+        <v>6464147</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9210629338230367</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9140366804329197</v>
+        <v>0.9140963423098828</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9276958992371244</v>
+        <v>0.9276520179678194</v>
       </c>
     </row>
     <row r="27">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4524</v>
+        <v>4968</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002220947628154561</v>
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01078430162879715</v>
+        <v>0.01184267118450748</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4670</v>
+        <v>4661</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001142768376014628</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005727932483266029</v>
+        <v>0.005717271047067906</v>
       </c>
     </row>
     <row r="5">
@@ -4749,7 +4749,7 @@
         <v>418531</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>414939</v>
+        <v>414495</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>419463</v>
@@ -4758,7 +4758,7 @@
         <v>0.9977790523718454</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9892156983712035</v>
+        <v>0.9881573288154918</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4783,7 +4783,7 @@
         <v>814286</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>810548</v>
+        <v>810557</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>815218</v>
@@ -4792,7 +4792,7 @@
         <v>0.9988572316239853</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9942720675167339</v>
+        <v>0.994282728952932</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7067</v>
+        <v>7545</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00339059687063213</v>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01196833443756916</v>
+        <v>0.0127782037670691</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -4908,19 +4908,19 @@
         <v>2764</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8275</v>
+        <v>7182</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004904614987598381</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001563866142758085</v>
+        <v>0.001554667346116829</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01468391682266203</v>
+        <v>0.01274479158153987</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -4929,19 +4929,19 @@
         <v>4766</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1867</v>
+        <v>1815</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9851</v>
+        <v>10552</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004129925998704626</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00161748882393198</v>
+        <v>0.001572985846160648</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0085364133093443</v>
+        <v>0.009143276145028328</v>
       </c>
     </row>
     <row r="8">
@@ -4958,7 +4958,7 @@
         <v>588494</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>583429</v>
+        <v>582951</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>590496</v>
@@ -4967,7 +4967,7 @@
         <v>0.9966094031293679</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9880316655624309</v>
+        <v>0.9872217962329326</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4979,19 +4979,19 @@
         <v>560780</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>555269</v>
+        <v>556362</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>562663</v>
+        <v>562668</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9950953850124016</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.985316083177338</v>
+        <v>0.98725520841846</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9984361338572419</v>
+        <v>0.9984453326538831</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1141</v>
@@ -5000,19 +5000,19 @@
         <v>1149274</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1144189</v>
+        <v>1143488</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1152173</v>
+        <v>1152225</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9958700740012953</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9914635866906559</v>
+        <v>0.9908567238549717</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.998382511176068</v>
+        <v>0.9984270141538394</v>
       </c>
     </row>
     <row r="9">
@@ -5104,19 +5104,19 @@
         <v>8790</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4010</v>
+        <v>3965</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15722</v>
+        <v>15566</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01313682159607884</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005993865356424076</v>
+        <v>0.005925566282000205</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02349706853510525</v>
+        <v>0.02326372389173151</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -5125,19 +5125,19 @@
         <v>7479</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3628</v>
+        <v>3641</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13869</v>
+        <v>14144</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01130751951724876</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005485466334866284</v>
+        <v>0.005505566451668102</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02096925404724476</v>
+        <v>0.02138464758839614</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -5146,19 +5146,19 @@
         <v>16268</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9640</v>
+        <v>9582</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25186</v>
+        <v>25142</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0122274711397239</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007245633153823453</v>
+        <v>0.007201948207306169</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0189297190165381</v>
+        <v>0.01889712847258024</v>
       </c>
     </row>
     <row r="11">
@@ -5175,19 +5175,19 @@
         <v>660307</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>653375</v>
+        <v>653531</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>665087</v>
+        <v>665132</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9868631784039211</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9765029314648949</v>
+        <v>0.9767362761082685</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9940061346435759</v>
+        <v>0.9940744337179998</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>657</v>
@@ -5196,19 +5196,19 @@
         <v>653907</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>647517</v>
+        <v>647242</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>657758</v>
+        <v>657745</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9886924804827513</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9790307459527551</v>
+        <v>0.9786153524116037</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9945145336651336</v>
+        <v>0.9944944335483318</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1286</v>
@@ -5217,19 +5217,19 @@
         <v>1314215</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1305297</v>
+        <v>1305341</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1320843</v>
+        <v>1320901</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9877725288602761</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9810702809834619</v>
+        <v>0.9811028715274197</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9927543668461766</v>
+        <v>0.9927980517926938</v>
       </c>
     </row>
     <row r="12">
@@ -5321,19 +5321,19 @@
         <v>35693</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25846</v>
+        <v>24687</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49883</v>
+        <v>48963</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05524784463374906</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04000632898227237</v>
+        <v>0.03821263066245394</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07721256086879234</v>
+        <v>0.07578880628332724</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -5342,19 +5342,19 @@
         <v>20647</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12625</v>
+        <v>12600</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32422</v>
+        <v>30939</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03181014991237405</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01945040453898904</v>
+        <v>0.01941256816270155</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04995058731363686</v>
+        <v>0.04766578338326177</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>51</v>
@@ -5363,19 +5363,19 @@
         <v>56340</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>41918</v>
+        <v>42675</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>74381</v>
+        <v>73005</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0435015928347145</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03236560181378192</v>
+        <v>0.0329506218307992</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05743175442294252</v>
+        <v>0.05636935570889932</v>
       </c>
     </row>
     <row r="14">
@@ -5392,19 +5392,19 @@
         <v>610355</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>596165</v>
+        <v>597085</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>620202</v>
+        <v>621361</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9447521553662509</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.922787439131208</v>
+        <v>0.9242111937166729</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9599936710177279</v>
+        <v>0.9617873693375465</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>583</v>
@@ -5413,19 +5413,19 @@
         <v>628430</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>616655</v>
+        <v>618138</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>636452</v>
+        <v>636477</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9681898500876259</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.950049412686363</v>
+        <v>0.9523342166167382</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9805495954610109</v>
+        <v>0.9805874318372985</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1133</v>
@@ -5434,19 +5434,19 @@
         <v>1238785</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1220744</v>
+        <v>1222120</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1253207</v>
+        <v>1252450</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9564984071652854</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9425682455770582</v>
+        <v>0.9436306442911007</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9676343981862185</v>
+        <v>0.9670493781692011</v>
       </c>
     </row>
     <row r="15">
@@ -5538,19 +5538,19 @@
         <v>60307</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>47170</v>
+        <v>46149</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>77083</v>
+        <v>76359</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1261863056243399</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09869806916514402</v>
+        <v>0.09656288982809362</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1612898605273236</v>
+        <v>0.159774474018839</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -5559,19 +5559,19 @@
         <v>57551</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44319</v>
+        <v>44609</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>74989</v>
+        <v>74251</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.115831205763715</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08920022974232987</v>
+        <v>0.08978433530219479</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1509292624681877</v>
+        <v>0.1494430473250697</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>106</v>
@@ -5580,19 +5580,19 @@
         <v>117857</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>97339</v>
+        <v>96807</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>140063</v>
+        <v>137776</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1209082022152597</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09985888387778416</v>
+        <v>0.09931322974286251</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1436890932165209</v>
+        <v>0.1413424195529786</v>
       </c>
     </row>
     <row r="17">
@@ -5609,19 +5609,19 @@
         <v>417611</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>400835</v>
+        <v>401559</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>430748</v>
+        <v>431769</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8738136943756601</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.838710139472676</v>
+        <v>0.8402255259811611</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9013019308348558</v>
+        <v>0.9034371101719063</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>381</v>
@@ -5630,19 +5630,19 @@
         <v>439298</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>421860</v>
+        <v>422598</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>452530</v>
+        <v>452240</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.884168794236285</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8490707375318123</v>
+        <v>0.8505569526749298</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9107997702576702</v>
+        <v>0.910215664697805</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>751</v>
@@ -5651,19 +5651,19 @@
         <v>856910</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>834704</v>
+        <v>836991</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>877428</v>
+        <v>877960</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8790917977847402</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8563109067834791</v>
+        <v>0.8586575804470215</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9001411161222158</v>
+        <v>0.9006867702571376</v>
       </c>
     </row>
     <row r="18">
@@ -5755,19 +5755,19 @@
         <v>90456</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>73225</v>
+        <v>74341</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>108294</v>
+        <v>107036</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2705587000262745</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2190199796920213</v>
+        <v>0.2223574239231416</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3239130938483044</v>
+        <v>0.3201504749637423</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>79</v>
@@ -5776,19 +5776,19 @@
         <v>83517</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>66983</v>
+        <v>67041</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>100529</v>
+        <v>100759</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2210845699524656</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1773164430789506</v>
+        <v>0.177468562207118</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2661181375151922</v>
+        <v>0.2667250416644836</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>166</v>
@@ -5797,19 +5797,19 @@
         <v>173973</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>149591</v>
+        <v>151634</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>197348</v>
+        <v>199411</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2443128688549781</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2100725177908859</v>
+        <v>0.2129417715414078</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2771386119842209</v>
+        <v>0.2800354419255689</v>
       </c>
     </row>
     <row r="20">
@@ -5826,19 +5826,19 @@
         <v>243874</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>226036</v>
+        <v>227294</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>261105</v>
+        <v>259989</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7294412999737254</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6760869061516956</v>
+        <v>0.6798495250362578</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7809800203079788</v>
+        <v>0.7776425760768584</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>275</v>
@@ -5847,19 +5847,19 @@
         <v>294245</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>277233</v>
+        <v>277003</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>310779</v>
+        <v>310721</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7789154300475344</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7338818624848078</v>
+        <v>0.7332749583355167</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8226835569210494</v>
+        <v>0.8225314377928821</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>513</v>
@@ -5868,19 +5868,19 @@
         <v>538119</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>514744</v>
+        <v>512681</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>562501</v>
+        <v>560458</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7556871311450218</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7228613880157797</v>
+        <v>0.719964558074431</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7899274822091142</v>
+        <v>0.7870582284585923</v>
       </c>
     </row>
     <row r="21">
@@ -5972,19 +5972,19 @@
         <v>85628</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>72495</v>
+        <v>72158</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>100505</v>
+        <v>100270</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3331870272057587</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.282083762746032</v>
+        <v>0.2807735642436424</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3910723743171014</v>
+        <v>0.3901581648117412</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>80</v>
@@ -5993,19 +5993,19 @@
         <v>105985</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>88608</v>
+        <v>86591</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>127565</v>
+        <v>128166</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2648499711924538</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2214265616897435</v>
+        <v>0.2163867015266006</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3187771795630893</v>
+        <v>0.3202790021946343</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>180</v>
@@ -6014,19 +6014,19 @@
         <v>191613</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>168333</v>
+        <v>167149</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>216939</v>
+        <v>216765</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2915745127181859</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2561489393260854</v>
+        <v>0.2543479309499539</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3301117154841435</v>
+        <v>0.3298477601964085</v>
       </c>
     </row>
     <row r="23">
@@ -6043,19 +6043,19 @@
         <v>171370</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>156493</v>
+        <v>156728</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>184503</v>
+        <v>184840</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6668129727942413</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6089276256828987</v>
+        <v>0.6098418351882587</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7179162372539681</v>
+        <v>0.7192264357563577</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>221</v>
@@ -6064,19 +6064,19 @@
         <v>294184</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>272604</v>
+        <v>272003</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>311561</v>
+        <v>313578</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7351500288075461</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6812228204369108</v>
+        <v>0.6797209978053659</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7785734383102566</v>
+        <v>0.7836132984733996</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>423</v>
@@ -6085,19 +6085,19 @@
         <v>465554</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>440228</v>
+        <v>440402</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>488834</v>
+        <v>490018</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7084254872818141</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6698882845158565</v>
+        <v>0.6701522398035915</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7438510606739146</v>
+        <v>0.7456520690500461</v>
       </c>
     </row>
     <row r="24">
@@ -6189,19 +6189,19 @@
         <v>283807</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>254398</v>
+        <v>248452</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>315851</v>
+        <v>315337</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08361167524436473</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0749474501917021</v>
+        <v>0.07319576833460832</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0930518462122866</v>
+        <v>0.09290062123889188</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>241</v>
@@ -6210,19 +6210,19 @@
         <v>277943</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>242575</v>
+        <v>244702</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>312581</v>
+        <v>311510</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0784142367788917</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06843611052221663</v>
+        <v>0.06903631487112906</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08818656848614737</v>
+        <v>0.0878843147963445</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>526</v>
@@ -6231,19 +6231,19 @@
         <v>561750</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>515709</v>
+        <v>513482</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>611236</v>
+        <v>611981</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08095670698434509</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07432147579491016</v>
+        <v>0.07400058334447875</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0880884540616873</v>
+        <v>0.08819571754417484</v>
       </c>
     </row>
     <row r="26">
@@ -6260,19 +6260,19 @@
         <v>3110543</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3078499</v>
+        <v>3079013</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3139952</v>
+        <v>3145898</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9163883247556353</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9069481537877134</v>
+        <v>0.907099378761108</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9250525498082979</v>
+        <v>0.9268042316653917</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3097</v>
@@ -6281,19 +6281,19 @@
         <v>3266599</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3231961</v>
+        <v>3233032</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3301967</v>
+        <v>3299840</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9215857632211083</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9118134315138527</v>
+        <v>0.9121156852036556</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9315638894777833</v>
+        <v>0.9309636851288711</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6043</v>
@@ -6302,19 +6302,19 @@
         <v>6377142</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6327656</v>
+        <v>6326911</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6423183</v>
+        <v>6425410</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9190432930156549</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9119115459383136</v>
+        <v>0.9118042824558253</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9256785242050901</v>
+        <v>0.9259994166555212</v>
       </c>
     </row>
     <row r="27">
@@ -6665,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5646</v>
+        <v>6394</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003048561253592098</v>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01557439945409431</v>
+        <v>0.01763925987775508</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -6686,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5674</v>
+        <v>6393</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001434678350609013</v>
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007365688285405785</v>
+        <v>0.008299217733142515</v>
       </c>
     </row>
     <row r="5">
@@ -6725,7 +6725,7 @@
         <v>361407</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>356866</v>
+        <v>356118</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>362512</v>
@@ -6734,7 +6734,7 @@
         <v>0.9969514387464079</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9844256005459059</v>
+        <v>0.9823607401222449</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -6746,16 +6746,16 @@
         <v>769200</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>764631</v>
+        <v>763912</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>770305</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.998565321649391</v>
+        <v>0.9985653216493909</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9926343117145943</v>
+        <v>0.9917007822668573</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -6853,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10636</v>
+        <v>10541</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003959870908089496</v>
@@ -6862,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02230244343101005</v>
+        <v>0.02210395111338593</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -6874,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3864</v>
+        <v>3457</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001548531079718382</v>
@@ -6883,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.007711428873529151</v>
+        <v>0.006899766938734954</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -6895,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11250</v>
+        <v>10950</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002724375476695222</v>
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01150332637410637</v>
+        <v>0.01119706523285049</v>
       </c>
     </row>
     <row r="8">
@@ -6921,16 +6921,16 @@
         <v>475002</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>466254</v>
+        <v>466349</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>476890</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9960401290919104</v>
+        <v>0.9960401290919106</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9776975565689907</v>
+        <v>0.9778960488866147</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -6942,16 +6942,16 @@
         <v>500307</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>497219</v>
+        <v>497626</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>501083</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9984514689202815</v>
+        <v>0.9984514689202816</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9922885711264708</v>
+        <v>0.9931002330612654</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -6963,7 +6963,7 @@
         <v>975309</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>966723</v>
+        <v>967023</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>977973</v>
@@ -6972,7 +6972,7 @@
         <v>0.9972756245233048</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9884966736258933</v>
+        <v>0.9888029347671495</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -7067,19 +7067,19 @@
         <v>12307</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6775</v>
+        <v>6658</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20324</v>
+        <v>20688</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01982393381285869</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01091201558772294</v>
+        <v>0.010724094629923</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03273662000345211</v>
+        <v>0.03332251290813181</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -7088,19 +7088,19 @@
         <v>7126</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3286</v>
+        <v>3551</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12717</v>
+        <v>12356</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01145380092386236</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00528198833921409</v>
+        <v>0.005708491796072185</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02044100909410894</v>
+        <v>0.01985991236670024</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -7109,19 +7109,19 @@
         <v>19433</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12318</v>
+        <v>12238</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28476</v>
+        <v>29525</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01563448212717657</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009910228448457282</v>
+        <v>0.0098453726943428</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02290963150502578</v>
+        <v>0.02375348266697609</v>
       </c>
     </row>
     <row r="11">
@@ -7138,19 +7138,19 @@
         <v>608530</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>600513</v>
+        <v>600149</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>614062</v>
+        <v>614179</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9801760661871414</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9672633799965477</v>
+        <v>0.9666774870918659</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9890879844122772</v>
+        <v>0.9892759053700769</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>836</v>
@@ -7159,19 +7159,19 @@
         <v>615013</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>609422</v>
+        <v>609783</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>618853</v>
+        <v>618588</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9885461990761376</v>
+        <v>0.9885461990761378</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9795589909058909</v>
+        <v>0.9801400876332995</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9947180116607859</v>
+        <v>0.9942915082039279</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1370</v>
@@ -7180,19 +7180,19 @@
         <v>1223543</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1214500</v>
+        <v>1213451</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1230658</v>
+        <v>1230738</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9843655178728233</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9770903684949745</v>
+        <v>0.9762465173330241</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9900897715515427</v>
+        <v>0.9901546273056572</v>
       </c>
     </row>
     <row r="12">
@@ -7284,19 +7284,19 @@
         <v>45143</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33846</v>
+        <v>31895</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61471</v>
+        <v>59376</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06443342714663343</v>
+        <v>0.06443342714663342</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04830908621807632</v>
+        <v>0.04552453540706879</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08773875283376611</v>
+        <v>0.08474803120534444</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -7305,19 +7305,19 @@
         <v>21461</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15209</v>
+        <v>14989</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29802</v>
+        <v>29602</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02912443273328913</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02063973748257335</v>
+        <v>0.02034128370267166</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0404432649867718</v>
+        <v>0.04017167464357206</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>78</v>
@@ -7326,19 +7326,19 @@
         <v>66605</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>52853</v>
+        <v>52183</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>83083</v>
+        <v>83030</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04633349467496591</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03676744934304373</v>
+        <v>0.03630141094185255</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05779686297549528</v>
+        <v>0.05775995805613088</v>
       </c>
     </row>
     <row r="14">
@@ -7355,19 +7355,19 @@
         <v>655474</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>639146</v>
+        <v>641241</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>666771</v>
+        <v>668722</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9355665728533666</v>
+        <v>0.9355665728533665</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.912261247166234</v>
+        <v>0.9152519687946554</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9516909137819236</v>
+        <v>0.9544754645929312</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1106</v>
@@ -7376,19 +7376,19 @@
         <v>715425</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>707084</v>
+        <v>707284</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>721677</v>
+        <v>721897</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9708755672667109</v>
+        <v>0.9708755672667108</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9595567350132284</v>
+        <v>0.9598283253564278</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9793602625174267</v>
+        <v>0.9796587162973284</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1728</v>
@@ -7397,19 +7397,19 @@
         <v>1370899</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1354421</v>
+        <v>1354474</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1384651</v>
+        <v>1385321</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9536665053250339</v>
+        <v>0.9536665053250343</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9422031370245049</v>
+        <v>0.942240041943869</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9632325506569563</v>
+        <v>0.9636985890581476</v>
       </c>
     </row>
     <row r="15">
@@ -7501,19 +7501,19 @@
         <v>77926</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>64966</v>
+        <v>64045</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>98436</v>
+        <v>94522</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1280922299796066</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1067891275438476</v>
+        <v>0.1052742924625902</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1618059108181697</v>
+        <v>0.1553723193110066</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>70</v>
@@ -7522,19 +7522,19 @@
         <v>40734</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31363</v>
+        <v>31555</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>50410</v>
+        <v>50842</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06705697995061462</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05163118941778201</v>
+        <v>0.05194670318676187</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08298582083827678</v>
+        <v>0.08369782437391173</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>160</v>
@@ -7543,19 +7543,19 @@
         <v>118660</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>101660</v>
+        <v>103622</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>137349</v>
+        <v>138569</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09759747602167737</v>
+        <v>0.09759747602167736</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08361537745873622</v>
+        <v>0.08522868616181349</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1129693014552753</v>
+        <v>0.1139731336030272</v>
       </c>
     </row>
     <row r="17">
@@ -7572,19 +7572,19 @@
         <v>530433</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>509923</v>
+        <v>513837</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>543393</v>
+        <v>544314</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8719077700203934</v>
+        <v>0.8719077700203933</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8381940891818304</v>
+        <v>0.8446276806889935</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8932108724561522</v>
+        <v>0.8947257075374097</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>930</v>
@@ -7593,19 +7593,19 @@
         <v>566714</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>557038</v>
+        <v>556606</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>576085</v>
+        <v>575893</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9329430200493852</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.917014179161723</v>
+        <v>0.9163021756260883</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.948368810582218</v>
+        <v>0.948053296813238</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1502</v>
@@ -7614,19 +7614,19 @@
         <v>1097147</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1078458</v>
+        <v>1077238</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1114147</v>
+        <v>1112185</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9024025239783228</v>
+        <v>0.9024025239783227</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8870306985447248</v>
+        <v>0.886026866396973</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.916384622541264</v>
+        <v>0.9147713138381867</v>
       </c>
     </row>
     <row r="18">
@@ -7718,19 +7718,19 @@
         <v>81937</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>68856</v>
+        <v>68983</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>95673</v>
+        <v>95873</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2012804401533405</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1691456369944461</v>
+        <v>0.169458337683914</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2350232883746981</v>
+        <v>0.2355136467791676</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>132</v>
@@ -7739,19 +7739,19 @@
         <v>70186</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>59282</v>
+        <v>60410</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>81055</v>
+        <v>82330</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1598157378361715</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1349871408486893</v>
+        <v>0.1375570856618819</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.184564632368347</v>
+        <v>0.1874685380891318</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>254</v>
@@ -7760,19 +7760,19 @@
         <v>152123</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>135830</v>
+        <v>134677</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>169908</v>
+        <v>168804</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1797619963140201</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1605093210459305</v>
+        <v>0.1591466647291058</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.200778505477394</v>
+        <v>0.1994741079762394</v>
       </c>
     </row>
     <row r="20">
@@ -7789,19 +7789,19 @@
         <v>325143</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>311407</v>
+        <v>311207</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>338224</v>
+        <v>338097</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7987195598466594</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7649767116253018</v>
+        <v>0.7644863532208324</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8308543630055539</v>
+        <v>0.8305416623160858</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>695</v>
@@ -7810,19 +7810,19 @@
         <v>368980</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>358111</v>
+        <v>356836</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>379884</v>
+        <v>378756</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8401842621638286</v>
+        <v>0.8401842621638285</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8154353676316531</v>
+        <v>0.8125314619108681</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8650128591513105</v>
+        <v>0.8624429143381179</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1143</v>
@@ -7831,19 +7831,19 @@
         <v>694123</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>676338</v>
+        <v>677442</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>710416</v>
+        <v>711569</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8202380036859799</v>
+        <v>0.82023800368598</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7992214945226057</v>
+        <v>0.8005258920237605</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8394906789540693</v>
+        <v>0.840853335270894</v>
       </c>
     </row>
     <row r="21">
@@ -7935,19 +7935,19 @@
         <v>86954</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>75577</v>
+        <v>74282</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>100592</v>
+        <v>100897</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2803189152833589</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2436416105065727</v>
+        <v>0.2394676078985547</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3242829188640698</v>
+        <v>0.3252656959423526</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>273</v>
@@ -7956,19 +7956,19 @@
         <v>135858</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>121404</v>
+        <v>123194</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>148673</v>
+        <v>151135</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.293171271207783</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2619792253463791</v>
+        <v>0.2658423404823298</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3208239908846215</v>
+        <v>0.3261365116978404</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>410</v>
@@ -7977,19 +7977,19 @@
         <v>222813</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>203239</v>
+        <v>201963</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>241868</v>
+        <v>241874</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2880177837728193</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2627153240530162</v>
+        <v>0.2610667197528248</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3126495727442133</v>
+        <v>0.3126572058146893</v>
       </c>
     </row>
     <row r="23">
@@ -8006,19 +8006,19 @@
         <v>223244</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>209606</v>
+        <v>209301</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>234621</v>
+        <v>235916</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7196810847166408</v>
+        <v>0.7196810847166409</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6757170811359302</v>
+        <v>0.6747343040576472</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7563583894934273</v>
+        <v>0.7605323921014452</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>606</v>
@@ -8027,19 +8027,19 @@
         <v>327552</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>314737</v>
+        <v>312275</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>342006</v>
+        <v>340216</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.706828728792217</v>
+        <v>0.7068287287922171</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6791760091153782</v>
+        <v>0.6738634883021595</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7380207746536208</v>
+        <v>0.7341576595176701</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>927</v>
@@ -8048,19 +8048,19 @@
         <v>550795</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>531740</v>
+        <v>531734</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>570369</v>
+        <v>571645</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7119822162271806</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6873504272557868</v>
+        <v>0.6873427941853107</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7372846759469835</v>
+        <v>0.7389332802471752</v>
       </c>
     </row>
     <row r="24">
@@ -8152,19 +8152,19 @@
         <v>306157</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>276909</v>
+        <v>277153</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>339115</v>
+        <v>337434</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08668637098612157</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07840518520783492</v>
+        <v>0.07847424368235967</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09601834333111516</v>
+        <v>0.0955422645158346</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>522</v>
@@ -8173,19 +8173,19 @@
         <v>277246</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>252828</v>
+        <v>255256</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>300583</v>
+        <v>303981</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07427603474967184</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06773440672826786</v>
+        <v>0.06838473994997088</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08052817994761208</v>
+        <v>0.08143849030585887</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>927</v>
@@ -8194,19 +8194,19 @@
         <v>583403</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>545920</v>
+        <v>544194</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>625197</v>
+        <v>622321</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.08030962241378704</v>
+        <v>0.08030962241378706</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07514986108513251</v>
+        <v>0.07491228852290376</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08606286569180459</v>
+        <v>0.08566699467729803</v>
       </c>
     </row>
     <row r="26">
@@ -8223,19 +8223,19 @@
         <v>3225618</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3192660</v>
+        <v>3194341</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3254866</v>
+        <v>3254622</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9133136290138784</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9039816566688846</v>
+        <v>0.9044577354841654</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9215948147921651</v>
+        <v>0.9215257563176403</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4838</v>
@@ -8244,19 +8244,19 @@
         <v>3455399</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3432062</v>
+        <v>3428664</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3479817</v>
+        <v>3477389</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9257239652503282</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9194718200523877</v>
+        <v>0.918561509694141</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.932265593271732</v>
+        <v>0.9316152600500293</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7808</v>
@@ -8265,19 +8265,19 @@
         <v>6681016</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6639222</v>
+        <v>6642098</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6718499</v>
+        <v>6720225</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.919690377586213</v>
+        <v>0.9196903775862129</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9139371343081956</v>
+        <v>0.9143330053227019</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9248501389148674</v>
+        <v>0.9250877114770962</v>
       </c>
     </row>
     <row r="27">
